--- a/backend/data/data.xlsx
+++ b/backend/data/data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\Hackillinois\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B56BE4-FAF7-4A66-A3B9-6EB953228FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F3594F-755B-4F10-98BB-0DB09A097371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankAccounts" sheetId="1" r:id="rId1"/>
-    <sheet name="CreditCards" sheetId="2" r:id="rId2"/>
+    <sheet name="CreditCards" sheetId="4" r:id="rId2"/>
     <sheet name="Loans" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="382">
   <si>
     <t>Bank</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Account Type</t>
   </si>
   <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
     <t>Monthly Fee</t>
   </si>
   <si>
@@ -47,30 +44,9 @@
     <t>Perks</t>
   </si>
   <si>
-    <t>Ally</t>
-  </si>
-  <si>
-    <t>Online Savings</t>
-  </si>
-  <si>
-    <t>High APY, no fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chase </t>
-  </si>
-  <si>
-    <t>Total Checking</t>
-  </si>
-  <si>
-    <t>Large ATM network</t>
-  </si>
-  <si>
     <t>Card Name</t>
   </si>
   <si>
-    <t>Interest Rate (APR)</t>
-  </si>
-  <si>
     <t>Annual Fee</t>
   </si>
   <si>
@@ -80,15 +56,6 @@
     <t>Chase</t>
   </si>
   <si>
-    <t>Freedom Flex</t>
-  </si>
-  <si>
-    <t>Cash Back</t>
-  </si>
-  <si>
-    <t>0% intro APR</t>
-  </si>
-  <si>
     <t>Loan Type</t>
   </si>
   <si>
@@ -104,16 +71,1118 @@
     <t>Personal Loan</t>
   </si>
   <si>
-    <t>2-7 years</t>
-  </si>
-  <si>
-    <t>No Fees</t>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Fidelity</t>
+  </si>
+  <si>
+    <t>Cash Management</t>
+  </si>
+  <si>
+    <t>Robinhood</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t>Business Checking</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase</t>
+  </si>
+  <si>
+    <t>Citibank</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>TD Bank</t>
+  </si>
+  <si>
+    <t>J.P. Morgan Self-Directed Investing</t>
+  </si>
+  <si>
+    <t>Brokerage</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Unlimited commission-free online trades; access to J.P. Morgan research.</t>
+  </si>
+  <si>
+    <t>Chase Business Complete Banking</t>
+  </si>
+  <si>
+    <t>Built-in card acceptance; access to 16,000 ATMs and 4,700 branches.</t>
+  </si>
+  <si>
+    <t>J.P. Morgan Traditional IRA</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
+  <si>
+    <t>Tax-deferred growth potential; wide range of investment options.</t>
+  </si>
+  <si>
+    <t>J.P. Morgan Roth IRA</t>
+  </si>
+  <si>
+    <t>Tax-free growth potential; no required minimum distributions.</t>
+  </si>
+  <si>
+    <t>Merrill Edge Self-Directed</t>
+  </si>
+  <si>
+    <t>$0 online stock and ETF trades; access to Merrill research and insights.</t>
+  </si>
+  <si>
+    <t>Business Advantage Fundamentals</t>
+  </si>
+  <si>
+    <t>Access to cash flow monitoring tools; integration with QuickBooks.</t>
+  </si>
+  <si>
+    <t>Merrill Traditional IRA</t>
+  </si>
+  <si>
+    <t>Tax advantages; access to a wide range of investment choices.</t>
+  </si>
+  <si>
+    <t>Merrill Roth IRA</t>
+  </si>
+  <si>
+    <t>Potential for tax-free withdrawals; no required minimum distributions.</t>
+  </si>
+  <si>
+    <t>Citi Self Invest</t>
+  </si>
+  <si>
+    <t>Commission-free trades; personalized investment recommendations.</t>
+  </si>
+  <si>
+    <t>CitiBusiness® Streamlined Checking</t>
+  </si>
+  <si>
+    <t>Online and mobile banking; access to CitiBusiness specialists.</t>
+  </si>
+  <si>
+    <t>Citi Personal Wealth Management IRA</t>
+  </si>
+  <si>
+    <t>Comprehensive retirement planning; access to financial advisors.</t>
+  </si>
+  <si>
+    <t>WellsTrade Brokerage Account</t>
+  </si>
+  <si>
+    <t>$0 online stock and ETF trades; access to Wells Fargo Advisors research.</t>
+  </si>
+  <si>
+    <t>Initiate Business Checking</t>
+  </si>
+  <si>
+    <t>Online banking with bill pay; access to 13,000 ATMs and 5,300 branches.</t>
+  </si>
+  <si>
+    <t>Wells Fargo Traditional IRA</t>
+  </si>
+  <si>
+    <t>Tax-deferred growth; wide range of investment options.</t>
+  </si>
+  <si>
+    <t>Wells Fargo Roth IRA</t>
+  </si>
+  <si>
+    <t>Tax-free growth potential; flexible withdrawal options.</t>
+  </si>
+  <si>
+    <t>U.S. Bank</t>
+  </si>
+  <si>
+    <t>U.S. Bancorp Investments Brokerage</t>
+  </si>
+  <si>
+    <t>Commission-free online trades; access to investment research.</t>
+  </si>
+  <si>
+    <t>Silver Business Checking Package</t>
+  </si>
+  <si>
+    <t>No monthly maintenance fee; 125 free transactions per statement cycle.</t>
+  </si>
+  <si>
+    <t>U.S. Bank Traditional IRA</t>
+  </si>
+  <si>
+    <t>Tax advantages; variety of investment options.</t>
+  </si>
+  <si>
+    <t>U.S. Bank Roth IRA</t>
+  </si>
+  <si>
+    <t>Tax-free growth; no required minimum distributions.</t>
+  </si>
+  <si>
+    <t>PNC Investments Brokerage Account</t>
+  </si>
+  <si>
+    <t>Access to a range of investment products; online trading platform.</t>
+  </si>
+  <si>
+    <t>Free online and mobile banking; cash flow insight tools.</t>
+  </si>
+  <si>
+    <t>PNC Traditional IRA</t>
+  </si>
+  <si>
+    <t>Tax-deferred growth; diverse investment choices.</t>
+  </si>
+  <si>
+    <t>PNC Roth IRA</t>
+  </si>
+  <si>
+    <t>Potential for tax-free withdrawals; flexible contribution options.</t>
+  </si>
+  <si>
+    <t>Marcus Invest</t>
+  </si>
+  <si>
+    <t>0.35% AUM</t>
+  </si>
+  <si>
+    <t>Automated portfolios; access to Goldman Sachs strategies.</t>
+  </si>
+  <si>
+    <t>Marcus Traditional IRA</t>
+  </si>
+  <si>
+    <t>Tax-deferred growth; managed portfolios.</t>
+  </si>
+  <si>
+    <t>Marcus Roth IRA</t>
+  </si>
+  <si>
+    <t>Tax-free growth potential; personalized investment strategies.</t>
+  </si>
+  <si>
+    <t>Capital One Investing</t>
+  </si>
+  <si>
+    <t>Commission-free trades; user-friendly platform.</t>
+  </si>
+  <si>
+    <t>Spark Business Checking</t>
+  </si>
+  <si>
+    <t>Unlimited transactions; free online bill pay.</t>
+  </si>
+  <si>
+    <t>Capital One Traditional IRA</t>
+  </si>
+  <si>
+    <t>Tax-deferred growth; variety of investment options.</t>
+  </si>
+  <si>
+    <t>Capital One Roth IRA</t>
+  </si>
+  <si>
+    <t>TD Ameritrade Brokerage Account</t>
+  </si>
+  <si>
+    <t>$0 commissions on online stock trades; extensive research tools.</t>
+  </si>
+  <si>
+    <t>Fidelity Brokerage Account</t>
+  </si>
+  <si>
+    <t>Commission-free stock and ETF trades; access to research and trading tools.</t>
+  </si>
+  <si>
+    <t>Fidelity Cash Management Account</t>
+  </si>
+  <si>
+    <t>No account fees; FDIC insured sweep program; ATM fee reimbursement.</t>
+  </si>
+  <si>
+    <t>Fidelity Traditional IRA</t>
+  </si>
+  <si>
+    <t>Tax-deferred growth; wide range of investments.</t>
+  </si>
+  <si>
+    <t>Fidelity Roth IRA</t>
+  </si>
+  <si>
+    <t>Fidelity 401(k)</t>
+  </si>
+  <si>
+    <t>Varies</t>
+  </si>
+  <si>
+    <t>Employer-sponsored plans with robust investment choices and educational tools.</t>
+  </si>
+  <si>
+    <t>Vanguard Brokerage Account</t>
+  </si>
+  <si>
+    <t>Commission-free Vanguard ETF trades; strong focus on low-cost funds.</t>
+  </si>
+  <si>
+    <t>Vanguard Cash Reserves Account</t>
+  </si>
+  <si>
+    <t>Money market fund with high yield; easy transfers to investments.</t>
+  </si>
+  <si>
+    <t>Vanguard Traditional IRA</t>
+  </si>
+  <si>
+    <t>Tax-deferred growth; access to Vanguard's low-cost funds.</t>
+  </si>
+  <si>
+    <t>Vanguard Roth IRA</t>
+  </si>
+  <si>
+    <t>Tax-free growth; wide investment selection; low expense ratios.</t>
+  </si>
+  <si>
+    <t>Vanguard 401(k)</t>
+  </si>
+  <si>
+    <t>Employer-sponsored; Vanguard funds with low costs.</t>
+  </si>
+  <si>
+    <t>Robinhood Brokerage Account</t>
+  </si>
+  <si>
+    <t>Commission-free trading; fractional shares; crypto trading included.</t>
+  </si>
+  <si>
+    <t>Robinhood Cash Card</t>
+  </si>
+  <si>
+    <t>Debit card linked to brokerage account; rewards program.</t>
+  </si>
+  <si>
+    <t>Robinhood IRA (Traditional &amp; Roth)</t>
+  </si>
+  <si>
+    <t>IRA with 1% or 3% match for Robinhood Gold users; commission-free trades.</t>
+  </si>
+  <si>
+    <t>Chase Sapphire Preferred</t>
+  </si>
+  <si>
+    <t>21.49% - 28.49%</t>
+  </si>
+  <si>
+    <t>2x on travel &amp; dining</t>
+  </si>
+  <si>
+    <t>Strong travel portal &amp; transfer partners</t>
+  </si>
+  <si>
+    <t>Chase Sapphire Reserve</t>
+  </si>
+  <si>
+    <t>22.49% - 29.49%</t>
+  </si>
+  <si>
+    <t>3x on travel &amp; dining</t>
+  </si>
+  <si>
+    <t>Priority Pass lounge, $300 travel credit</t>
+  </si>
+  <si>
+    <t>Chase Freedom Unlimited</t>
+  </si>
+  <si>
+    <t>20.49% - 29.24%</t>
+  </si>
+  <si>
+    <t>1.5% cash back on all purchases</t>
+  </si>
+  <si>
+    <t>Simple cash back, no annual fee</t>
+  </si>
+  <si>
+    <t>Bank of America Travel Rewards</t>
+  </si>
+  <si>
+    <t>19.24% - 29.24%</t>
+  </si>
+  <si>
+    <t>1.5x points on all purchases</t>
+  </si>
+  <si>
+    <t>No foreign transaction fees</t>
+  </si>
+  <si>
+    <t>Customized Cash Rewards</t>
+  </si>
+  <si>
+    <t>3% in chosen category</t>
+  </si>
+  <si>
+    <t>Flexible cash back category</t>
+  </si>
+  <si>
+    <t>Citi Premier Card</t>
+  </si>
+  <si>
+    <t>21.24% - 29.24%</t>
+  </si>
+  <si>
+    <t>3x on air travel, hotels, gas</t>
+  </si>
+  <si>
+    <t>Strong travel partners &amp; ThankYou Points</t>
+  </si>
+  <si>
+    <t>Citi Double Cash</t>
+  </si>
+  <si>
+    <t>2% cash back (1% purchase + 1% pay)</t>
+  </si>
+  <si>
+    <t>Simple, high cash back</t>
+  </si>
+  <si>
+    <t>Wells Fargo Active Cash</t>
+  </si>
+  <si>
+    <t>20.24% - 29.24%</t>
+  </si>
+  <si>
+    <t>2% cash back on all purchases</t>
+  </si>
+  <si>
+    <t>Flat-rate cash back</t>
+  </si>
+  <si>
+    <t>Autograph Card</t>
+  </si>
+  <si>
+    <t>20.24% - 29.99%</t>
+  </si>
+  <si>
+    <t>3x on travel, dining, gas</t>
+  </si>
+  <si>
+    <t>No annual fee travel option</t>
+  </si>
+  <si>
+    <t>Capital One Venture Rewards</t>
+  </si>
+  <si>
+    <t>20.99% - 28.99%</t>
+  </si>
+  <si>
+    <t>2x miles on all purchases</t>
+  </si>
+  <si>
+    <t>Transfer partners &amp; flexible redemptions</t>
+  </si>
+  <si>
+    <t>Capital One Venture X</t>
+  </si>
+  <si>
+    <t>22.99% - 29.99%</t>
+  </si>
+  <si>
+    <t>Airport lounge access, travel credits</t>
+  </si>
+  <si>
+    <t>Quicksilver Cash Rewards</t>
+  </si>
+  <si>
+    <t>20.99% - 30.99%</t>
+  </si>
+  <si>
+    <t>1.5% cash back</t>
+  </si>
+  <si>
+    <t>Simple cash back</t>
+  </si>
+  <si>
+    <t>Amex Platinum</t>
+  </si>
+  <si>
+    <t>21.24% - 29.99%</t>
+  </si>
+  <si>
+    <t>5x on flights</t>
+  </si>
+  <si>
+    <t>Centurion lounges, travel perks</t>
+  </si>
+  <si>
+    <t>Amex Gold</t>
+  </si>
+  <si>
+    <t>4x dining, 3x flights</t>
+  </si>
+  <si>
+    <t>Dining &amp; grocery powerhouse</t>
+  </si>
+  <si>
+    <t>Blue Cash Preferred</t>
+  </si>
+  <si>
+    <t>19.24% - 29.99%</t>
+  </si>
+  <si>
+    <t>6% groceries, 3% gas</t>
+  </si>
+  <si>
+    <t>High rewards for families</t>
+  </si>
+  <si>
+    <t>Blue Cash Everyday</t>
+  </si>
+  <si>
+    <t>3% groceries, 3% gas</t>
+  </si>
+  <si>
+    <t>No annual fee alternative</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Discover It Cash Back</t>
+  </si>
+  <si>
+    <t>17.24% - 28.24%</t>
+  </si>
+  <si>
+    <t>5% rotating categories</t>
+  </si>
+  <si>
+    <t>First year cash back match</t>
+  </si>
+  <si>
+    <t>Discover It Student Chrome</t>
+  </si>
+  <si>
+    <t>2% gas &amp; dining</t>
+  </si>
+  <si>
+    <t>Student-focused</t>
+  </si>
+  <si>
+    <t>U.S. Bank Altitude Go</t>
+  </si>
+  <si>
+    <t>19.99% - 28.99%</t>
+  </si>
+  <si>
+    <t>4x dining, 2x groceries</t>
+  </si>
+  <si>
+    <t>No annual fee dining powerhouse</t>
+  </si>
+  <si>
+    <t>U.S. Bank Cash+</t>
+  </si>
+  <si>
+    <t>5% in two chosen categories</t>
+  </si>
+  <si>
+    <t>Choose your categories</t>
+  </si>
+  <si>
+    <t>PNC Cash Rewards</t>
+  </si>
+  <si>
+    <t>19.24% - 30.24%</t>
+  </si>
+  <si>
+    <t>4% gas, 3% dining, 2% groceries</t>
+  </si>
+  <si>
+    <t>Great for everyday spending</t>
+  </si>
+  <si>
+    <t>TD Double Up Credit Card</t>
+  </si>
+  <si>
+    <t>19.99% - 29.99%</t>
+  </si>
+  <si>
+    <t>Fidelity Rewards Visa</t>
+  </si>
+  <si>
+    <t>18.24% - 29.24%</t>
+  </si>
+  <si>
+    <t>2% cash back (deposited to Fidelity)</t>
+  </si>
+  <si>
+    <t>Direct cash back into investments</t>
+  </si>
+  <si>
+    <t>Apple Card</t>
+  </si>
+  <si>
+    <t>3% at Apple, 2% Apple Pay</t>
+  </si>
+  <si>
+    <t>Daily cash back, great for Apple fans</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>AAdvantage Aviator Red</t>
+  </si>
+  <si>
+    <t>2x American Airlines</t>
+  </si>
+  <si>
+    <t>Free checked bag, priority boarding</t>
+  </si>
+  <si>
+    <t>Ink Business Preferred</t>
+  </si>
+  <si>
+    <t>3x travel &amp; select business</t>
+  </si>
+  <si>
+    <t>Strong for travel &amp; business expenses</t>
+  </si>
+  <si>
+    <t>Amex Business Platinum</t>
+  </si>
+  <si>
+    <t>5x flights, 1.5x larger purchases</t>
+  </si>
+  <si>
+    <t>Premium business travel perks</t>
+  </si>
+  <si>
+    <t>Spark Cash Plus</t>
+  </si>
+  <si>
+    <t>Business-focused simplicity</t>
+  </si>
+  <si>
+    <t>Costco Anywhere Visa</t>
+  </si>
+  <si>
+    <t>$0 (w/ membership)</t>
+  </si>
+  <si>
+    <t>4% gas, 3% dining</t>
+  </si>
+  <si>
+    <t>Top rewards for Costco members</t>
+  </si>
+  <si>
+    <t>Synchrony</t>
+  </si>
+  <si>
+    <t>Venmo Credit Card</t>
+  </si>
+  <si>
+    <t>3% in top spending category</t>
+  </si>
+  <si>
+    <t>Cashback auto-deposited into Venmo</t>
+  </si>
+  <si>
+    <t>PayPal Cashback Mastercard</t>
+  </si>
+  <si>
+    <t>3% PayPal, 2% everywhere else</t>
+  </si>
+  <si>
+    <t>Ideal for PayPal users</t>
+  </si>
+  <si>
+    <t>Amazon Prime Rewards Visa</t>
+  </si>
+  <si>
+    <t>19.49% - 27.49%</t>
+  </si>
+  <si>
+    <t>$0 (Prime required)</t>
+  </si>
+  <si>
+    <t>5% Amazon &amp; Whole Foods</t>
+  </si>
+  <si>
+    <t>2% at restaurants, gas stations, drugstores; No foreign transaction fees</t>
+  </si>
+  <si>
+    <t>Amazon Rewards Visa</t>
+  </si>
+  <si>
+    <t>3% Amazon &amp; Whole Foods</t>
+  </si>
+  <si>
+    <t>2% at restaurants, gas stations, drugstores</t>
+  </si>
+  <si>
+    <t>Daily Cash back; Titanium card option; No fees whatsoever</t>
+  </si>
+  <si>
+    <t>Interest Rate (APR) Range</t>
+  </si>
+  <si>
+    <t>Auto Loan</t>
+  </si>
+  <si>
+    <t>7.14% - 13.97%</t>
+  </si>
+  <si>
+    <t>12 to 84 months</t>
+  </si>
+  <si>
+    <t>Discount for Chase customers; online pre-approval</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>6.00% - 7.50%</t>
+  </si>
+  <si>
+    <t>15, 20, 30 years</t>
+  </si>
+  <si>
+    <t>Relationship discounts for customers</t>
+  </si>
+  <si>
+    <t>5.49% - 12.29%</t>
+  </si>
+  <si>
+    <t>12 to 72 months</t>
+  </si>
+  <si>
+    <t>Lower rates for Preferred Rewards members</t>
+  </si>
+  <si>
+    <t>5.75% - 7.25%</t>
+  </si>
+  <si>
+    <t>Relationship discounts; online tracking</t>
+  </si>
+  <si>
+    <t>10.49% - 19.49%</t>
+  </si>
+  <si>
+    <t>12 to 60 months</t>
+  </si>
+  <si>
+    <t>Fixed rates; rate discounts for autopay</t>
+  </si>
+  <si>
+    <t>5.99% - 7.50%</t>
+  </si>
+  <si>
+    <t>10, 15, 30 years</t>
+  </si>
+  <si>
+    <t>Rate discounts for Citi customers</t>
+  </si>
+  <si>
+    <t>7.49% - 23.74%</t>
+  </si>
+  <si>
+    <t>No origination fee; rate discount with autopay</t>
+  </si>
+  <si>
+    <t>6.12% - 13.99%</t>
+  </si>
+  <si>
+    <t>Pre-qualification available</t>
+  </si>
+  <si>
+    <t>5.99% - 7.49%</t>
+  </si>
+  <si>
+    <t>Multiple loan options, including jumbo loans</t>
+  </si>
+  <si>
+    <t>6.49% - 12.99%</t>
+  </si>
+  <si>
+    <t>Pre-qualify without impacting credit</t>
+  </si>
+  <si>
+    <t>No direct personal loans—focuses on auto loans.</t>
+  </si>
+  <si>
+    <t>7.98% - 19.98%</t>
+  </si>
+  <si>
+    <t>Direct offer to cardholders only</t>
+  </si>
+  <si>
+    <t>Business Loan</t>
+  </si>
+  <si>
+    <t>6.98% - 19.97%</t>
+  </si>
+  <si>
+    <t>6 to 36 months</t>
+  </si>
+  <si>
+    <t>Pre-approved for eligible Amex business cardholders</t>
+  </si>
+  <si>
+    <t>7.49% - 28.24%</t>
+  </si>
+  <si>
+    <t>6 to 60 months</t>
+  </si>
+  <si>
+    <t>Rate discount with autopay</t>
+  </si>
+  <si>
+    <t>5.75% - 7.50%</t>
+  </si>
+  <si>
+    <t>Digital pre-approval; fixed or adjustable rates</t>
+  </si>
+  <si>
+    <t>8.24% - 21.49%</t>
+  </si>
+  <si>
+    <t>Discount with autopay; no origination fee</t>
+  </si>
+  <si>
+    <t>$1 million+</t>
+  </si>
+  <si>
+    <t>SBA loans, equipment loans, and more</t>
+  </si>
+  <si>
+    <t>8.99% - 21.99%</t>
+  </si>
+  <si>
+    <t>No origination fee; quick approval</t>
+  </si>
+  <si>
+    <t>Home Equity Loan</t>
+  </si>
+  <si>
+    <t>7.74% - 10.99%</t>
+  </si>
+  <si>
+    <t>5 to 30 years</t>
+  </si>
+  <si>
+    <t>Flexible repayment; fixed rate</t>
+  </si>
+  <si>
+    <t>7.99% - 24.99%</t>
+  </si>
+  <si>
+    <t>36 to 84 months</t>
+  </si>
+  <si>
+    <t>No origination fees; fixed rates</t>
+  </si>
+  <si>
+    <t>Student Loan</t>
+  </si>
+  <si>
+    <t>5.49% - 14.49%</t>
+  </si>
+  <si>
+    <t>Cost of attendance</t>
+  </si>
+  <si>
+    <t>10 to 20 years</t>
+  </si>
+  <si>
+    <t>No fees; multi-year approval</t>
+  </si>
+  <si>
+    <t>Marcus Personal Loan</t>
+  </si>
+  <si>
+    <t>6.99% - 24.99%</t>
+  </si>
+  <si>
+    <t>36 to 72 months</t>
+  </si>
+  <si>
+    <t>No fees ever; fixed rates</t>
+  </si>
+  <si>
+    <t>Margin Loan (Brokerage)</t>
+  </si>
+  <si>
+    <t>Varies (starting ~8.50%)</t>
+  </si>
+  <si>
+    <t>Based on assets</t>
+  </si>
+  <si>
+    <t>Borrow against investments</t>
+  </si>
+  <si>
+    <t>Varies (starting ~8.25%)</t>
+  </si>
+  <si>
+    <t>Low-cost margin rates</t>
+  </si>
+  <si>
+    <t>8.99% - 23.99%</t>
+  </si>
+  <si>
+    <t>24 to 84 months</t>
+  </si>
+  <si>
+    <t>No fees; unemployment protection</t>
+  </si>
+  <si>
+    <t>Student Loan Refi</t>
+  </si>
+  <si>
+    <t>5.49% - 8.99%</t>
+  </si>
+  <si>
+    <t>No max</t>
+  </si>
+  <si>
+    <t>5 to 20 years</t>
+  </si>
+  <si>
+    <t>Member benefits; career coaching</t>
+  </si>
+  <si>
+    <t>Chase Total Checking</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>Chase Premier Plus Checking</t>
+  </si>
+  <si>
+    <t>Chase Savings</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Advantage SafeBalance Banking</t>
+  </si>
+  <si>
+    <t>Advantage Plus Banking</t>
+  </si>
+  <si>
+    <t>Advantage Relationship Banking</t>
+  </si>
+  <si>
+    <t>Rewards Savings</t>
+  </si>
+  <si>
+    <t>Access Account Package</t>
+  </si>
+  <si>
+    <t>Basic Banking Package</t>
+  </si>
+  <si>
+    <t>Citi Elevate Account Package</t>
+  </si>
+  <si>
+    <t>Citi Savings</t>
+  </si>
+  <si>
+    <t>Everyday Checking</t>
+  </si>
+  <si>
+    <t>Preferred Checking</t>
+  </si>
+  <si>
+    <t>Way2Save Savings</t>
+  </si>
+  <si>
+    <t>U.S. Bank National</t>
+  </si>
+  <si>
+    <t>Easy Checking</t>
+  </si>
+  <si>
+    <t>Gold Checking</t>
+  </si>
+  <si>
+    <t>Platinum Checking</t>
+  </si>
+  <si>
+    <t>Standard Savings</t>
+  </si>
+  <si>
+    <t>Virtual Wallet</t>
+  </si>
+  <si>
+    <t>Virtual Wallet with Performance Spend</t>
+  </si>
+  <si>
+    <t>Virtual Wallet with Performance Select</t>
+  </si>
+  <si>
+    <t>Marcus Online Savings</t>
+  </si>
+  <si>
+    <t>360 Checking</t>
+  </si>
+  <si>
+    <t>360 Performance Savings</t>
+  </si>
+  <si>
+    <t>TD Simple Checking</t>
+  </si>
+  <si>
+    <t>TD Convenience Checking</t>
+  </si>
+  <si>
+    <t>TD Beyond Checking</t>
+  </si>
+  <si>
+    <t>TD Simple Savings</t>
+  </si>
+  <si>
+    <t>BMO Harris</t>
+  </si>
+  <si>
+    <t>Smart Advantage Checking</t>
+  </si>
+  <si>
+    <t>Premier Account</t>
+  </si>
+  <si>
+    <t>Statement Savings</t>
+  </si>
+  <si>
+    <t>Access to 16,000 ATMs and 4,700 branches; online and mobile banking</t>
+  </si>
+  <si>
+    <t>No Chase fee on first four non-Chase ATM transactions per statement period; interest-bearing</t>
+  </si>
+  <si>
+    <t>Automatic savings program; access to 16,000 ATMs</t>
+  </si>
+  <si>
+    <t>No overdraft fees; helps manage spending</t>
+  </si>
+  <si>
+    <t>Option to add overdraft protection; paper checks available</t>
+  </si>
+  <si>
+    <t>Earns interest; additional perks with higher balances</t>
+  </si>
+  <si>
+    <t>Keep the Change savings program; automatic transfers</t>
+  </si>
+  <si>
+    <t>No overdraft fees; online and mobile banking</t>
+  </si>
+  <si>
+    <t>Unlimited check writing; no fee for using non-Citi ATMs</t>
+  </si>
+  <si>
+    <t>High-yield checking; no Citi fee for using non-Citi ATMs</t>
+  </si>
+  <si>
+    <t>Automatic transfers; linked to checking for overdraft protection</t>
+  </si>
+  <si>
+    <t>Access to 13,000 ATMs and 5,300 branches; mobile banking</t>
+  </si>
+  <si>
+    <t>Earns interest; fee waivers on certain services</t>
+  </si>
+  <si>
+    <t>Automatic savings options; Save As You Go transfers</t>
+  </si>
+  <si>
+    <t>Access to 3,000 branches and 4,800 ATMs; mobile banking</t>
+  </si>
+  <si>
+    <t>No ATM transaction fees; interest-bearing</t>
+  </si>
+  <si>
+    <t>Earns interest; free money orders and cashier's checks</t>
+  </si>
+  <si>
+    <t>Automatic transfers; mobile check deposit</t>
+  </si>
+  <si>
+    <t>Combines checking and savings; online tools for budgeting</t>
+  </si>
+  <si>
+    <t>Reimburses non-PNC ATM fees; higher interest on savings</t>
+  </si>
+  <si>
+    <t>Highest level of benefits; premium rates on savings</t>
+  </si>
+  <si>
+    <t>Auto Savings tool; no monthly service charge with minimum balance</t>
+  </si>
+  <si>
+    <t>High-yield savings; no fees; online-only bank</t>
+  </si>
+  <si>
+    <t>No fees; access to 70,000+ ATMs; online and mobile banking</t>
+  </si>
+  <si>
+    <t>High-yield savings; no fees; automatic savings plans</t>
+  </si>
+  <si>
+    <t>No minimum balance; access to 1,200 branches</t>
+  </si>
+  <si>
+    <t>No monthly fee with $100 minimum daily balance; discounts on TD loans</t>
+  </si>
+  <si>
+    <t>No TD ATM fees worldwide; earns interest</t>
+  </si>
+  <si>
+    <t>Automatic transfers; no monthly fee for minors</t>
+  </si>
+  <si>
+    <t>No monthly maintenance fee; access to 40,000 ATMs</t>
+  </si>
+  <si>
+    <t>Automatic savings transfers; mobile banking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,16 +1212,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -166,47 +1244,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC504FE5-8F17-4319-9673-7460075D36A6}" name="Table1" displayName="Table1" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3" xr:uid="{AC504FE5-8F17-4319-9673-7460075D36A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{385AE73B-2921-4103-A88C-A87FCEC7C814}" name="Table1" displayName="Table1" ref="A1:F77" totalsRowShown="0">
+  <autoFilter ref="A1:F77" xr:uid="{385AE73B-2921-4103-A88C-A87FCEC7C814}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5C511143-361B-4086-8EC8-18B2B1E52CAC}" name="Bank"/>
-    <tableColumn id="2" xr3:uid="{00DC3B68-0F03-4C48-90DC-E8622F76B47C}" name="Account Type"/>
-    <tableColumn id="3" xr3:uid="{9F343E8E-4A2C-43BA-B63C-EE0078861181}" name="Interest Rate"/>
-    <tableColumn id="4" xr3:uid="{9BE3DB5E-6333-4645-912C-87EA54A0C4F6}" name="Monthly Fee"/>
-    <tableColumn id="5" xr3:uid="{007C8E1A-1763-4504-805D-67A571E1E5E4}" name="Minimum Balance"/>
-    <tableColumn id="6" xr3:uid="{12D7F237-E4E8-4EC8-B9ED-39D4E2155822}" name="Perks"/>
+    <tableColumn id="1" xr3:uid="{9C3809E6-840D-416E-A824-2344217BE41E}" name="Bank"/>
+    <tableColumn id="2" xr3:uid="{C8A21415-E3B6-4FF7-B7DA-7E51D1A40FDC}" name="Account Name"/>
+    <tableColumn id="3" xr3:uid="{842332F7-DEEE-498F-939B-B7268749780F}" name="Account Type"/>
+    <tableColumn id="5" xr3:uid="{F6A96DED-A5E7-4AA3-9EF1-11422EDEE2A9}" name="Monthly Fee" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A07290D6-F02F-43C3-B8F6-1AD114FB154B}" name="Minimum Balance" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{E2FF3A41-70AA-451F-BE78-2C35490E7520}" name="Perks"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8D6DF4C-CA5D-46BB-9CF7-221088414235}" name="Table3" displayName="Table3" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{E8D6DF4C-CA5D-46BB-9CF7-221088414235}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A132DB1-08B5-436D-B458-1322A58A13D9}" name="Table3" displayName="Table3" ref="A1:F35" totalsRowShown="0">
+  <autoFilter ref="A1:F35" xr:uid="{1A132DB1-08B5-436D-B458-1322A58A13D9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{196135DA-2776-438C-BA9A-7979E516578B}" name="Bank"/>
-    <tableColumn id="2" xr3:uid="{84C1D443-8A95-4D1D-8A17-AC9D65618FDC}" name="Card Name"/>
-    <tableColumn id="3" xr3:uid="{B427F876-8321-4B5D-9915-E390D107E601}" name="Interest Rate (APR)"/>
-    <tableColumn id="4" xr3:uid="{675F8BD6-E84B-4951-AF4B-5B8127564B09}" name="Annual Fee"/>
-    <tableColumn id="5" xr3:uid="{94D39BE4-B2A7-4F81-8270-6A015F43F5CE}" name="Rewards"/>
-    <tableColumn id="6" xr3:uid="{FB77F0D0-3048-4ED2-9B02-1CE7409ABC9B}" name="Perks"/>
+    <tableColumn id="1" xr3:uid="{53644BB3-A5DA-44A0-8B10-1ED7B055CDCE}" name="Bank"/>
+    <tableColumn id="2" xr3:uid="{B4BDDCBA-DB67-4449-A0C8-9D5E6B0D11DA}" name="Card Name"/>
+    <tableColumn id="3" xr3:uid="{742F3ABD-1327-4CD4-8C41-662833114029}" name="Interest Rate (APR) Range"/>
+    <tableColumn id="4" xr3:uid="{75E6E7C4-6852-4DA8-96BC-ABAEA086EF11}" name="Annual Fee" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E275105C-6AE5-49FB-AA2C-B2A3A078B67A}" name="Rewards"/>
+    <tableColumn id="6" xr3:uid="{D0DEBCF8-CB37-4EE9-93F2-522F7CB9F51C}" name="Perks"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7428D04A-4883-4A0C-BF83-7BC7012CADE4}" name="Table4" displayName="Table4" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{7428D04A-4883-4A0C-BF83-7BC7012CADE4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{29703ADE-24D7-4D52-B61C-8632EEF4AE3B}" name="Table4" displayName="Table4" ref="A1:F27" totalsRowShown="0">
+  <autoFilter ref="A1:F27" xr:uid="{29703ADE-24D7-4D52-B61C-8632EEF4AE3B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B884333A-54A4-4C01-8565-BF00C9FAAD66}" name="Bank"/>
-    <tableColumn id="2" xr3:uid="{AF2B681B-2031-4F2E-8DF3-870DCECDFB37}" name="Loan Type"/>
-    <tableColumn id="3" xr3:uid="{6FC04D2E-0EDA-4E1D-9474-0A8E4854FF28}" name="Interest Rate"/>
-    <tableColumn id="4" xr3:uid="{336F79F8-B6CB-4D60-9F22-37F9E2C1516A}" name="Max Amount"/>
-    <tableColumn id="5" xr3:uid="{EF3EE2DA-D1CA-4BED-9E6A-BC8C7EB95FCD}" name="Term Options"/>
-    <tableColumn id="6" xr3:uid="{E72926F3-4042-46E2-B7B2-0B07B747DD93}" name="Perks"/>
+    <tableColumn id="1" xr3:uid="{DBB6FBB3-4150-4C10-9EC4-3DB20D2109B6}" name="Bank"/>
+    <tableColumn id="2" xr3:uid="{20443F23-2066-4F79-A24F-C4525F96D521}" name="Loan Type"/>
+    <tableColumn id="3" xr3:uid="{0F919B1A-7E2C-4A9A-A6E7-0007E179D747}" name="Interest Rate (APR) Range"/>
+    <tableColumn id="4" xr3:uid="{5F277332-43D5-4D07-95C3-DAC40BFC04B8}" name="Max Amount"/>
+    <tableColumn id="5" xr3:uid="{D0539AEA-1F30-4824-AC31-ACE35D420B60}" name="Term Options"/>
+    <tableColumn id="6" xr3:uid="{24A5C80E-7D11-48AD-982D-2A74F8414CF5}" name="Perks"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -473,75 +1551,1560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>500</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="1">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>318</v>
+      </c>
+      <c r="C47" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" s="1">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E48" s="1">
+        <v>300</v>
+      </c>
+      <c r="F48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" t="s">
+        <v>317</v>
+      </c>
+      <c r="D50" s="1">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" t="s">
+        <v>317</v>
+      </c>
+      <c r="D51" s="1">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>500</v>
+      </c>
+      <c r="F52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" t="s">
+        <v>317</v>
+      </c>
+      <c r="D54" s="1">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="1">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>500</v>
+      </c>
+      <c r="F56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="1">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" t="s">
+        <v>320</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>300</v>
+      </c>
+      <c r="F59" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" s="1">
+        <v>14.95</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>332</v>
+      </c>
+      <c r="B62" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" t="s">
+        <v>317</v>
+      </c>
+      <c r="D62" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1">
+        <v>300</v>
+      </c>
+      <c r="F63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>338</v>
+      </c>
+      <c r="C65" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="1">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>339</v>
+      </c>
+      <c r="C66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" s="1">
+        <v>25</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>300</v>
+      </c>
+      <c r="F67" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" t="s">
+        <v>320</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" t="s">
+        <v>320</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" t="s">
+        <v>317</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="1">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s">
+        <v>345</v>
+      </c>
+      <c r="C73" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" s="1">
+        <v>25</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" t="s">
+        <v>346</v>
+      </c>
+      <c r="C74" t="s">
+        <v>320</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>300</v>
+      </c>
+      <c r="F74" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" t="s">
+        <v>317</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" t="s">
+        <v>317</v>
+      </c>
+      <c r="D76" s="1">
+        <v>25</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -553,56 +3116,721 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2A046A-DA0C-4B9E-B344-462F5B5EEB4E}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2E9D6-FB45-4FE7-94D2-28A127F8FAEF}">
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="1">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1">
+        <v>550</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="1">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="1">
+        <v>395</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="1">
+        <v>695</v>
+      </c>
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="1">
+        <v>250</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="1">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.2049</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="1">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="1">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1">
+        <v>695</v>
+      </c>
+      <c r="E28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -615,55 +3843,560 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E4DB62-C60F-4EC9-90F9-C5D84874F67B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="1">
+        <v>35000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="1">
         <v>100000</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
+      <c r="E26" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F27" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
